--- a/src/models/baselines/RF/results/synthetic/position-topology/metrics.xlsx
+++ b/src/models/baselines/RF/results/synthetic/position-topology/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7181682439930673</v>
+        <v>0.7302579152539875</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.595</v>
+        <v>0.58</v>
       </c>
       <c r="C3" t="n">
-        <v>0.595</v>
+        <v>0.58</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7257292654975295</v>
+        <v>0.750321359708634</v>
       </c>
     </row>
     <row r="4">
@@ -490,7 +490,7 @@
         <v>0.585</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6868828561680093</v>
+        <v>0.67873494228561</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.605</v>
+        <v>0.58</v>
       </c>
       <c r="C5" t="n">
-        <v>0.605</v>
+        <v>0.58</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7006980647004214</v>
+        <v>0.7186121681408405</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.691938178780284</v>
+        <v>0.7030378410975425</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="D7" t="n">
-        <v>0.728070458824583</v>
+        <v>0.7445232824258747</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.625</v>
+        <v>0.59</v>
       </c>
       <c r="C8" t="n">
-        <v>0.625</v>
+        <v>0.59</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6987669308957605</v>
+        <v>0.7278964598289029</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="C9" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7343729631632224</v>
+        <v>0.7205635640435327</v>
       </c>
     </row>
     <row r="10">
@@ -574,7 +574,7 @@
         <v>0.62</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7359480224759093</v>
+        <v>0.7381714689255929</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="C11" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7319194072925416</v>
+        <v>0.7514651055499444</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6024999999999999</v>
+        <v>0.5955</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6024999999999999</v>
+        <v>0.5955</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7152494391791329</v>
+        <v>0.7263584107260462</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01550089603144857</v>
+        <v>0.02087662169349565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01550089603144857</v>
+        <v>0.02087662169349565</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01881561572075873</v>
+        <v>0.02260058977545007</v>
       </c>
     </row>
   </sheetData>
